--- a/docs/LMER_Microglia_2.xlsx
+++ b/docs/LMER_Microglia_2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>logFC</t>
   </si>
@@ -66,12 +66,12 @@
     <t>Gm26870</t>
   </si>
   <si>
+    <t>Rn7s2</t>
+  </si>
+  <si>
     <t>Sorbs2</t>
   </si>
   <si>
-    <t>Rn7s2</t>
-  </si>
-  <si>
     <t>Actr3b</t>
   </si>
   <si>
@@ -84,18 +84,18 @@
     <t>Gm10801</t>
   </si>
   <si>
+    <t>Gm37401</t>
+  </si>
+  <si>
     <t>Chchd5</t>
   </si>
   <si>
-    <t>Gm37401</t>
+    <t>Gm37411</t>
   </si>
   <si>
     <t>Gm10717</t>
   </si>
   <si>
-    <t>Gm37411</t>
-  </si>
-  <si>
     <t>Pola2</t>
   </si>
   <si>
@@ -105,39 +105,6 @@
     <t>Bola1</t>
   </si>
   <si>
-    <t>Olfr986</t>
-  </si>
-  <si>
-    <t>Gm14399</t>
-  </si>
-  <si>
-    <t>Tmem18</t>
-  </si>
-  <si>
-    <t>Prrx1</t>
-  </si>
-  <si>
-    <t>A930024E05Rik</t>
-  </si>
-  <si>
-    <t>Gm29423</t>
-  </si>
-  <si>
-    <t>Arl5c</t>
-  </si>
-  <si>
-    <t>Mfsd11</t>
-  </si>
-  <si>
-    <t>Rsad2</t>
-  </si>
-  <si>
-    <t>Ift122</t>
-  </si>
-  <si>
-    <t>Cpq</t>
-  </si>
-  <si>
     <t>query</t>
   </si>
   <si>
@@ -183,6 +150,9 @@
     <t>1</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>query_1</t>
   </si>
   <si>
@@ -192,13 +162,22 @@
     <t>TF:M00285_1</t>
   </si>
   <si>
+    <t>TF:M00972_1</t>
+  </si>
+  <si>
     <t>TF</t>
   </si>
   <si>
     <t>Factor: TCF11; motif: GTCATNNWNNNNN; match class: 1</t>
   </si>
   <si>
+    <t>Factor: IRF; motif: RAAANTGAAAN; match class: 1</t>
+  </si>
+  <si>
     <t>TF:M00285</t>
+  </si>
+  <si>
+    <t>TF:M00972</t>
   </si>
 </sst>
 </file>
@@ -275,22 +254,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>-12.456258133106209</v>
+        <v>-12.464774056837403</v>
       </c>
       <c r="C2" t="n">
         <v>5.8773006486210715</v>
       </c>
       <c r="D2" t="n">
-        <v>-15.01941944777714</v>
+        <v>-14.742178571674602</v>
       </c>
       <c r="E2" t="n">
-        <v>8.80083799006028E-28</v>
+        <v>3.3025949438165676E-27</v>
       </c>
       <c r="F2" t="n">
-        <v>1.2016664191628306E-23</v>
+        <v>4.509363136287141E-23</v>
       </c>
       <c r="G2" t="n">
-        <v>45.59574311425658</v>
+        <v>43.970111291102796</v>
       </c>
     </row>
     <row r="3">
@@ -298,22 +277,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>6.384674851077068</v>
+        <v>6.378280094286279</v>
       </c>
       <c r="C3" t="n">
         <v>2.0154136727363983</v>
       </c>
       <c r="D3" t="n">
-        <v>11.188357910615915</v>
+        <v>10.99107734757528</v>
       </c>
       <c r="E3" t="n">
-        <v>1.539960530525605E-19</v>
+        <v>4.224844696452957E-19</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0513310541898305E-15</v>
+        <v>2.8843014742684337E-15</v>
       </c>
       <c r="G3" t="n">
-        <v>30.39973220062941</v>
+        <v>29.218231438666045</v>
       </c>
     </row>
     <row r="4">
@@ -321,22 +300,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>2.2408861544916348</v>
+        <v>2.2402933253836954</v>
       </c>
       <c r="C4" t="n">
         <v>0.6490569447373307</v>
       </c>
       <c r="D4" t="n">
-        <v>10.569817293643041</v>
+        <v>10.369109551630125</v>
       </c>
       <c r="E4" t="n">
-        <v>3.664493922852299E-18</v>
+        <v>1.0275094105448521E-17</v>
       </c>
       <c r="F4" t="n">
-        <v>1.6678333340875098E-14</v>
+        <v>4.67653783052647E-14</v>
       </c>
       <c r="G4" t="n">
-        <v>27.764824167123173</v>
+        <v>26.59581996569994</v>
       </c>
     </row>
     <row r="5">
@@ -344,22 +323,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>6.340378658049417</v>
+        <v>6.3378777627518845</v>
       </c>
       <c r="C5" t="n">
         <v>1.368771845515932</v>
       </c>
       <c r="D5" t="n">
-        <v>8.542647630997878</v>
+        <v>8.382720764748575</v>
       </c>
       <c r="E5" t="n">
-        <v>1.197792594879678E-13</v>
+        <v>2.6966884558315607E-13</v>
       </c>
       <c r="F5" t="n">
-        <v>4.088665022621781E-10</v>
+        <v>9.205146043981033E-10</v>
       </c>
       <c r="G5" t="n">
-        <v>18.96448375887971</v>
+        <v>18.074349134481857</v>
       </c>
     </row>
     <row r="6">
@@ -367,22 +346,22 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>3.179425938463021</v>
+        <v>3.178784584995685</v>
       </c>
       <c r="C6" t="n">
         <v>1.0941884087293163</v>
       </c>
       <c r="D6" t="n">
-        <v>7.3874295449407965</v>
+        <v>7.29093954789733</v>
       </c>
       <c r="E6" t="n">
-        <v>3.9227613537096076E-11</v>
+        <v>6.304296136767483E-11</v>
       </c>
       <c r="F6" t="n">
-        <v>1.0712276704710197E-7</v>
+        <v>1.7215771890284644E-7</v>
       </c>
       <c r="G6" t="n">
-        <v>13.973639434912043</v>
+        <v>13.422647085731048</v>
       </c>
     </row>
     <row r="7">
@@ -390,22 +369,22 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>2.547910375973413</v>
+        <v>2.5483738172668606</v>
       </c>
       <c r="C7" t="n">
         <v>0.9313979624794326</v>
       </c>
       <c r="D7" t="n">
-        <v>6.721527128741487</v>
+        <v>6.593549087067008</v>
       </c>
       <c r="E7" t="n">
-        <v>9.961089753269403E-10</v>
+        <v>1.832834069286327E-9</v>
       </c>
       <c r="F7" t="n">
-        <v>2.266811991519007E-6</v>
+        <v>4.170919397005918E-6</v>
       </c>
       <c r="G7" t="n">
-        <v>11.16630819423703</v>
+        <v>10.527185815968183</v>
       </c>
     </row>
     <row r="8">
@@ -413,22 +392,22 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>2.9224083911063103</v>
+        <v>2.9243641532869162</v>
       </c>
       <c r="C8" t="n">
         <v>1.0147797030943646</v>
       </c>
       <c r="D8" t="n">
-        <v>5.8782321900085925</v>
+        <v>5.782950824269531</v>
       </c>
       <c r="E8" t="n">
-        <v>5.0776213868020276E-8</v>
+        <v>7.805312194203441E-8</v>
       </c>
       <c r="F8" t="n">
-        <v>9.90426320219927E-5</v>
+        <v>1.52248189570934E-4</v>
       </c>
       <c r="G8" t="n">
-        <v>7.741996088492215</v>
+        <v>7.291348457267089</v>
       </c>
     </row>
     <row r="9">
@@ -436,22 +415,22 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>2.1021387341439923</v>
+        <v>2.1025218629154616</v>
       </c>
       <c r="C9" t="n">
         <v>0.16210990638870332</v>
       </c>
       <c r="D9" t="n">
-        <v>5.265153751753896</v>
+        <v>5.16794057658829</v>
       </c>
       <c r="E9" t="n">
-        <v>7.608185403229657E-7</v>
+        <v>1.15261392065143E-6</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0012985270436962218</v>
+        <v>0.0019672238090718283</v>
       </c>
       <c r="G9" t="n">
-        <v>5.381735119778133</v>
+        <v>4.966489249748003</v>
       </c>
     </row>
     <row r="10">
@@ -459,22 +438,22 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.777111078932096</v>
+        <v>-4.767470539119514</v>
       </c>
       <c r="C10" t="n">
         <v>4.442970696527676</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.147319468839456</v>
+        <v>-5.042702157731355</v>
       </c>
       <c r="E10" t="n">
-        <v>1.2581301012189522E-6</v>
+        <v>1.956418113100364E-6</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0019087231557826192</v>
+        <v>0.002968103657363597</v>
       </c>
       <c r="G10" t="n">
-        <v>4.943453541057336</v>
+        <v>4.50993519084456</v>
       </c>
     </row>
     <row r="11">
@@ -482,22 +461,22 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>2.5432649691060645</v>
+        <v>2.5460558048357274</v>
       </c>
       <c r="C11" t="n">
         <v>1.2215806325660363</v>
       </c>
       <c r="D11" t="n">
-        <v>5.076917692524432</v>
+        <v>4.98857011581493</v>
       </c>
       <c r="E11" t="n">
-        <v>1.6942862836900834E-6</v>
+        <v>2.453783466915718E-6</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00231337849175044</v>
+        <v>0.0033503959457267217</v>
       </c>
       <c r="G11" t="n">
-        <v>4.684197648808038</v>
+        <v>4.314538870498911</v>
       </c>
     </row>
     <row r="12">
@@ -505,22 +484,22 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>-5.881857076265425</v>
+        <v>-5.864740719764526</v>
       </c>
       <c r="C12" t="n">
         <v>6.156057714475036</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.977681194176874</v>
+        <v>-4.8744403802930325</v>
       </c>
       <c r="E12" t="n">
-        <v>2.5677691639468662E-6</v>
+        <v>3.938481080990395E-6</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0027265998901681156</v>
+        <v>0.004168658768271846</v>
       </c>
       <c r="G12" t="n">
-        <v>4.322172930278144</v>
+        <v>3.9065416572373355</v>
       </c>
     </row>
     <row r="13">
@@ -528,22 +507,22 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>2.0751782864323913</v>
+        <v>4.108709780188018</v>
       </c>
       <c r="C13" t="n">
-        <v>0.16824882099238836</v>
+        <v>1.3578746097733512</v>
       </c>
       <c r="D13" t="n">
-        <v>4.975223795718795</v>
+        <v>4.873759266725288</v>
       </c>
       <c r="E13" t="n">
-        <v>2.594195914545046E-6</v>
+        <v>3.949546172039172E-6</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0027265998901681156</v>
+        <v>0.004168658768271846</v>
       </c>
       <c r="G13" t="n">
-        <v>4.313259786367313</v>
+        <v>3.904123239406495</v>
       </c>
     </row>
     <row r="14">
@@ -551,22 +530,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>4.1139116974450625</v>
+        <v>2.0722770205310375</v>
       </c>
       <c r="C14" t="n">
-        <v>1.3578746097733512</v>
+        <v>0.16824882099238836</v>
       </c>
       <c r="D14" t="n">
-        <v>4.97505682668573</v>
+        <v>4.8722633892985785</v>
       </c>
       <c r="E14" t="n">
-        <v>2.596001067246631E-6</v>
+        <v>3.97395376239353E-6</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0027265998901681156</v>
+        <v>0.004168658768271846</v>
       </c>
       <c r="G14" t="n">
-        <v>4.312654270502426</v>
+        <v>3.8988125484362417</v>
       </c>
     </row>
     <row r="15">
@@ -574,22 +553,22 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>2.0468917524968395</v>
+        <v>2.046891752496846</v>
       </c>
       <c r="C15" t="n">
         <v>0.1428163599530938</v>
       </c>
       <c r="D15" t="n">
-        <v>4.950674308967276</v>
+        <v>4.854553712784739</v>
       </c>
       <c r="E15" t="n">
-        <v>2.8731624880723995E-6</v>
+        <v>4.27429491400365E-6</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0028021543294386103</v>
+        <v>0.004168658768271846</v>
       </c>
       <c r="G15" t="n">
-        <v>4.224356277142668</v>
+        <v>3.83601201955517</v>
       </c>
     </row>
     <row r="16">
@@ -597,22 +576,22 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>-6.145282130650646</v>
+        <v>-6.124477274428195</v>
       </c>
       <c r="C16" t="n">
         <v>7.44704905844226</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.929136496128484</v>
+        <v>-4.8302298308655285</v>
       </c>
       <c r="E16" t="n">
-        <v>3.1417847439818615E-6</v>
+        <v>4.723004670904727E-6</v>
       </c>
       <c r="F16" t="n">
-        <v>0.002859861926288556</v>
+        <v>0.004299193718435543</v>
       </c>
       <c r="G16" t="n">
-        <v>4.146568574213044</v>
+        <v>3.749976287113215</v>
       </c>
     </row>
     <row r="17">
@@ -620,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>1.536872209643839</v>
+        <v>1.5364494299292846</v>
       </c>
       <c r="C17" t="n">
         <v>0.15653496204693762</v>
       </c>
       <c r="D17" t="n">
-        <v>4.886832180307008</v>
+        <v>4.794979058656484</v>
       </c>
       <c r="E17" t="n">
-        <v>3.7423625689606003E-6</v>
+        <v>5.455444091371483E-6</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0031936386572867523</v>
+        <v>0.004655539601474139</v>
       </c>
       <c r="G17" t="n">
-        <v>3.9943539875190748</v>
+        <v>3.625745845301248</v>
       </c>
     </row>
     <row r="18">
@@ -643,22 +622,22 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>-4.77175705691176</v>
+        <v>-4.75045851733839</v>
       </c>
       <c r="C18" t="n">
         <v>5.021749480721904</v>
       </c>
       <c r="D18" t="n">
-        <v>-4.744023149705952</v>
+        <v>-4.641150391510902</v>
       </c>
       <c r="E18" t="n">
-        <v>6.712402181426596E-6</v>
+        <v>1.0162107282333765E-5</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0053912434932469845</v>
+        <v>0.008161965460763837</v>
       </c>
       <c r="G18" t="n">
-        <v>3.4862708974617647</v>
+        <v>3.0900663552951215</v>
       </c>
     </row>
     <row r="19">
@@ -666,22 +645,22 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>1.9401908944619166</v>
+        <v>3.7576418927848323</v>
       </c>
       <c r="C19" t="n">
-        <v>0.18944687322660603</v>
+        <v>1.1962923414953417</v>
       </c>
       <c r="D19" t="n">
-        <v>4.477336736829443</v>
+        <v>4.393731979896755</v>
       </c>
       <c r="E19" t="n">
-        <v>1.9453841633534514E-5</v>
+        <v>2.6953059882282395E-5</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0141816366641602</v>
+        <v>0.019465358080632936</v>
       </c>
       <c r="G19" t="n">
-        <v>2.562392914927649</v>
+        <v>2.2514827934712027</v>
       </c>
     </row>
     <row r="20">
@@ -689,22 +668,22 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>3.7591958144085105</v>
+        <v>1.9378901385934078</v>
       </c>
       <c r="C20" t="n">
-        <v>1.1962923414953417</v>
+        <v>0.18944687322660603</v>
       </c>
       <c r="D20" t="n">
-        <v>4.47368717067101</v>
+        <v>4.392456409311522</v>
       </c>
       <c r="E20" t="n">
-        <v>1.9734224155488778E-5</v>
+        <v>2.7086700126851162E-5</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0141816366641602</v>
+        <v>0.019465358080632936</v>
       </c>
       <c r="G20" t="n">
-        <v>2.549984623521798</v>
+        <v>2.247235976894867</v>
       </c>
     </row>
     <row r="21">
@@ -712,22 +691,22 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>-3.9870464419775162</v>
+        <v>1.6188523026226482</v>
       </c>
       <c r="C21" t="n">
-        <v>4.416271669502783</v>
+        <v>0.40928409908816055</v>
       </c>
       <c r="D21" t="n">
-        <v>-4.375880020053379</v>
+        <v>4.2881582488773855</v>
       </c>
       <c r="E21" t="n">
-        <v>2.8882630815613916E-5</v>
+        <v>4.04675157512316E-5</v>
       </c>
       <c r="F21" t="n">
-        <v>0.019718172057819623</v>
+        <v>0.027535268390518158</v>
       </c>
       <c r="G21" t="n">
-        <v>2.2198950294425774</v>
+        <v>1.9027391618114926</v>
       </c>
     </row>
     <row r="22">
@@ -735,22 +714,22 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>1.6160874700392458</v>
+        <v>-3.966549523641249</v>
       </c>
       <c r="C22" t="n">
-        <v>0.40928409908816055</v>
+        <v>4.416271669502783</v>
       </c>
       <c r="D22" t="n">
-        <v>4.36277061146626</v>
+        <v>-4.276250830952802</v>
       </c>
       <c r="E22" t="n">
-        <v>3.0383674038103575E-5</v>
+        <v>4.2349541248050485E-5</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01975517549125077</v>
+        <v>0.027535268390518158</v>
       </c>
       <c r="G22" t="n">
-        <v>2.1760147773195175</v>
+        <v>1.8637581274395618</v>
       </c>
     </row>
     <row r="23">
@@ -758,22 +737,22 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>-2.8753017595218675</v>
+        <v>-2.8823704016527665</v>
       </c>
       <c r="C23" t="n">
         <v>2.295374827176795</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.2441288689241174</v>
+        <v>-4.172828968190846</v>
       </c>
       <c r="E23" t="n">
-        <v>4.785620864575717E-5</v>
+        <v>6.264566090172988E-5</v>
       </c>
       <c r="F23" t="n">
-        <v>0.029701303311325835</v>
+        <v>0.03888017517964635</v>
       </c>
       <c r="G23" t="n">
-        <v>1.782877629462055</v>
+        <v>1.5282603262759737</v>
       </c>
     </row>
     <row r="24">
@@ -781,22 +760,22 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>1.589323400306178</v>
+        <v>1.5899513623267112</v>
       </c>
       <c r="C24" t="n">
         <v>0.13357428761744342</v>
       </c>
       <c r="D24" t="n">
-        <v>4.214100053315732</v>
+        <v>4.13507745384206</v>
       </c>
       <c r="E24" t="n">
-        <v>5.362214912656698E-5</v>
+        <v>7.216306877646138E-5</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03183290539887589</v>
+        <v>0.04283976265538277</v>
       </c>
       <c r="G24" t="n">
-        <v>1.6845278164565647</v>
+        <v>1.4071873627403235</v>
       </c>
     </row>
     <row r="25">
@@ -804,275 +783,22 @@
         <v>29</v>
       </c>
       <c r="B25" t="n">
-        <v>2.9862974265763076</v>
+        <v>2.977616542588093</v>
       </c>
       <c r="C25" t="n">
         <v>0.5709690259195497</v>
       </c>
       <c r="D25" t="n">
-        <v>4.186799172799107</v>
+        <v>4.095823760718439</v>
       </c>
       <c r="E25" t="n">
-        <v>5.943923097325758E-5</v>
+        <v>8.352414094658698E-5</v>
       </c>
       <c r="F25" t="n">
-        <v>0.03381596915453579</v>
+        <v>0.04751827585352911</v>
       </c>
       <c r="G25" t="n">
-        <v>1.5955240104736683</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="n">
-        <v>-3.2266474834941166</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1.696993432308495</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-4.128691170581875</v>
-      </c>
-      <c r="E26" t="n">
-        <v>7.390468658352976E-5</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.03912868542573329</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.4074041981940288</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1.2168177936771531</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.13132932114819795</v>
-      </c>
-      <c r="D27" t="n">
-        <v>4.118179168830312</v>
-      </c>
-      <c r="E27" t="n">
-        <v>7.685939602625282E-5</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.03912868542573329</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.3735657528955088</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" t="n">
-        <v>2.6533921660180377</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.3857002793210438</v>
-      </c>
-      <c r="D28" t="n">
-        <v>4.110456894236044</v>
-      </c>
-      <c r="E28" t="n">
-        <v>7.910181213445182E-5</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.03912868542573329</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1.3487455080551136</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1.5666397363216116</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.5891095051645902</v>
-      </c>
-      <c r="D29" t="n">
-        <v>4.097486666807746</v>
-      </c>
-      <c r="E29" t="n">
-        <v>8.301000318114492E-5</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.03912868542573329</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1.307130363261109</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" t="n">
-        <v>2.0164538635649443</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.16573678734601874</v>
-      </c>
-      <c r="D30" t="n">
-        <v>4.083469115011089</v>
-      </c>
-      <c r="E30" t="n">
-        <v>8.744174029450824E-5</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.03912868542573329</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1.2622575108247496</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1.340999476864964</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.13283952456280881</v>
-      </c>
-      <c r="D31" t="n">
-        <v>4.080190114125131</v>
-      </c>
-      <c r="E31" t="n">
-        <v>8.851067453827301E-5</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.03912868542573329</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.251776234217389</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" t="n">
-        <v>3.1909328986178775</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.73972670101909</v>
-      </c>
-      <c r="D32" t="n">
-        <v>4.079194686021089</v>
-      </c>
-      <c r="E32" t="n">
-        <v>8.883764817619248E-5</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.03912868542573329</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1.2485955227814145</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" t="n">
-        <v>5.328918161715369</v>
-      </c>
-      <c r="C33" t="n">
-        <v>2.0069386610434323</v>
-      </c>
-      <c r="D33" t="n">
-        <v>4.0367218447623125</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1.0391911256591593E-4</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.04328020797743834</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1.1133863209599362</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" t="n">
-        <v>1.1518880655120762</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.07538400647676828</v>
-      </c>
-      <c r="D34" t="n">
-        <v>4.034939430299491</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1.0460281699542003E-4</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.04328020797743834</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1.107733800602694</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1.9054792744258906</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.39785396617312274</v>
-      </c>
-      <c r="D35" t="n">
-        <v>4.0119896157947705</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1.1379977206142233E-4</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.045700649639019424</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1.0351105153292801</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" t="n">
-        <v>3.3350315755034434</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.7235717283403603</v>
-      </c>
-      <c r="D36" t="n">
-        <v>3.99613682562173</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1.2059915940218427E-4</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.0470474549279264</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.985115862692064</v>
+        <v>1.2820991704429066</v>
       </c>
     </row>
   </sheetData>
@@ -1091,93 +817,140 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="N1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
+      <c r="O1" t="s">
         <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D2" t="n">
-        <v>0.009557797099864566</v>
+        <v>0.0022561659110852342</v>
       </c>
       <c r="E2" t="n">
         <v>22.0</v>
       </c>
       <c r="F2" t="n">
-        <v>31.0</v>
+        <v>22.0</v>
       </c>
       <c r="G2" t="n">
         <v>4.0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.12903225806451613</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="I2" t="n">
         <v>0.18181818181818182</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>12942.0</v>
+        <v>12925.0</v>
       </c>
       <c r="N2" t="n">
-        <v>3487.0</v>
+        <v>3523.0</v>
       </c>
       <c r="O2" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.045683443693022026</v>
+      </c>
+      <c r="E3" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.045871559633027525</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" t="n">
+        <v>12925.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1783.0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/docs/LMER_Microglia_2.xlsx
+++ b/docs/LMER_Microglia_2.xlsx
@@ -13,14 +13,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>logFC</t>
   </si>
   <si>
-    <t>AveExpr</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
@@ -36,73 +33,88 @@
     <t>AY036118</t>
   </si>
   <si>
+    <t>AC099934.1</t>
+  </si>
+  <si>
     <t>Rn7s1</t>
   </si>
   <si>
-    <t>AC099934.1</t>
+    <t>Tbata</t>
+  </si>
+  <si>
+    <t>Tmem170</t>
+  </si>
+  <si>
+    <t>Mgmt</t>
   </si>
   <si>
     <t>Gab3</t>
   </si>
   <si>
-    <t>Tbata</t>
-  </si>
-  <si>
-    <t>Tmem170</t>
-  </si>
-  <si>
-    <t>Mgmt</t>
-  </si>
-  <si>
-    <t>Katnb1</t>
-  </si>
-  <si>
     <t>Gm10719</t>
   </si>
   <si>
+    <t>Gm26870</t>
+  </si>
+  <si>
+    <t>Gm10800</t>
+  </si>
+  <si>
     <t>Gm15564</t>
   </si>
   <si>
-    <t>Gm26870</t>
+    <t>Gm10801</t>
+  </si>
+  <si>
+    <t>Gm10717</t>
+  </si>
+  <si>
+    <t>Prrx1</t>
   </si>
   <si>
     <t>Rn7s2</t>
   </si>
   <si>
-    <t>Sorbs2</t>
-  </si>
-  <si>
-    <t>Actr3b</t>
-  </si>
-  <si>
-    <t>Gm10800</t>
-  </si>
-  <si>
-    <t>Zbp1</t>
-  </si>
-  <si>
-    <t>Gm10801</t>
-  </si>
-  <si>
-    <t>Gm37401</t>
-  </si>
-  <si>
-    <t>Chchd5</t>
-  </si>
-  <si>
-    <t>Gm37411</t>
-  </si>
-  <si>
-    <t>Gm10717</t>
+    <t>Gm37716</t>
+  </si>
+  <si>
+    <t>Xist</t>
   </si>
   <si>
     <t>Pola2</t>
   </si>
   <si>
-    <t>Cd209g</t>
-  </si>
-  <si>
-    <t>Bola1</t>
+    <t>CT010467.1</t>
+  </si>
+  <si>
+    <t>Gm11168</t>
+  </si>
+  <si>
+    <t>A430010J10Rik</t>
+  </si>
+  <si>
+    <t>Gm44068</t>
+  </si>
+  <si>
+    <t>Gm28661</t>
+  </si>
+  <si>
+    <t>Gm22567</t>
+  </si>
+  <si>
+    <t>AC127302.1</t>
+  </si>
+  <si>
+    <t>Gm21738</t>
+  </si>
+  <si>
+    <t>Rpl19-ps11</t>
+  </si>
+  <si>
+    <t>Gm10359</t>
+  </si>
+  <si>
+    <t>Gm12671</t>
   </si>
   <si>
     <t>query</t>
@@ -153,31 +165,55 @@
     <t>2</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>query_1</t>
   </si>
   <si>
     <t>TRUE</t>
   </si>
   <si>
+    <t>GO:0006617</t>
+  </si>
+  <si>
     <t>TF:M00285_1</t>
   </si>
   <si>
-    <t>TF:M00972_1</t>
+    <t>TF:M00935</t>
+  </si>
+  <si>
+    <t>TF:M00935_1</t>
+  </si>
+  <si>
+    <t>GO:BP</t>
   </si>
   <si>
     <t>TF</t>
   </si>
   <si>
+    <t>SRP-dependent cotranslational protein targeting to membrane, signal sequence recognition</t>
+  </si>
+  <si>
     <t>Factor: TCF11; motif: GTCATNNWNNNNN; match class: 1</t>
   </si>
   <si>
-    <t>Factor: IRF; motif: RAAANTGAAAN; match class: 1</t>
+    <t>Factor: NFAT; motif: NWGGAAANWN</t>
+  </si>
+  <si>
+    <t>Factor: NFAT; motif: NWGGAAANWN; match class: 1</t>
+  </si>
+  <si>
+    <t>c("GO:0006614", "GO:0065003")</t>
   </si>
   <si>
     <t>TF:M00285</t>
   </si>
   <si>
-    <t>TF:M00972</t>
+    <t>TF:M00000</t>
   </si>
 </sst>
 </file>
@@ -245,560 +281,585 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-12.464774056837403</v>
+        <v>-10.106030600013783</v>
       </c>
       <c r="C2" t="n">
-        <v>5.8773006486210715</v>
+        <v>-13.789947788633683</v>
       </c>
       <c r="D2" t="n">
-        <v>-14.742178571674602</v>
+        <v>2.7188441489949247E-25</v>
       </c>
       <c r="E2" t="n">
-        <v>3.3025949438165676E-27</v>
+        <v>3.71230980103767E-21</v>
       </c>
       <c r="F2" t="n">
-        <v>4.509363136287141E-23</v>
-      </c>
-      <c r="G2" t="n">
-        <v>43.970111291102796</v>
+        <v>40.529498696899985</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>6.378280094286279</v>
+        <v>2.2402933253836896</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0154136727363983</v>
+        <v>13.120945962533792</v>
       </c>
       <c r="D3" t="n">
-        <v>10.99107734757528</v>
+        <v>7.504821630468717E-24</v>
       </c>
       <c r="E3" t="n">
-        <v>4.224844696452957E-19</v>
+        <v>5.123541727120993E-20</v>
       </c>
       <c r="F3" t="n">
-        <v>2.8843014742684337E-15</v>
-      </c>
-      <c r="G3" t="n">
-        <v>29.218231438666045</v>
+        <v>37.941760092079086</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>2.2402933253836954</v>
+        <v>5.880974527270541</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6490569447373307</v>
+        <v>12.702567075215722</v>
       </c>
       <c r="D4" t="n">
-        <v>10.369109551630125</v>
+        <v>6.111752454865547E-23</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0275094105448521E-17</v>
+        <v>2.781662267291139E-19</v>
       </c>
       <c r="F4" t="n">
-        <v>4.67653783052647E-14</v>
-      </c>
-      <c r="G4" t="n">
-        <v>26.59581996569994</v>
+        <v>36.28828301630462</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>6.3378777627518845</v>
+        <v>3.4002338189489225</v>
       </c>
       <c r="C5" t="n">
-        <v>1.368771845515932</v>
+        <v>9.835571469221989</v>
       </c>
       <c r="D5" t="n">
-        <v>8.382720764748575</v>
+        <v>1.4591942085177551E-16</v>
       </c>
       <c r="E5" t="n">
-        <v>2.6966884558315607E-13</v>
+        <v>4.980959430775357E-13</v>
       </c>
       <c r="F5" t="n">
-        <v>9.205146043981033E-10</v>
-      </c>
-      <c r="G5" t="n">
-        <v>18.074349134481857</v>
+        <v>24.360379497474767</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>3.178784584995685</v>
+        <v>2.548373817266852</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0941884087293163</v>
+        <v>8.343407441862762</v>
       </c>
       <c r="D6" t="n">
-        <v>7.29093954789733</v>
+        <v>3.107048335000403E-13</v>
       </c>
       <c r="E6" t="n">
-        <v>6.304296136767483E-11</v>
+        <v>8.484727593219102E-10</v>
       </c>
       <c r="F6" t="n">
-        <v>1.7215771890284644E-7</v>
-      </c>
-      <c r="G6" t="n">
-        <v>13.422647085731048</v>
+        <v>17.92694679930857</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>2.5483738172668606</v>
+        <v>3.287029102311517</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9313979624794326</v>
+        <v>8.170582739751772</v>
       </c>
       <c r="D7" t="n">
-        <v>6.593549087067008</v>
+        <v>7.466020768691434E-13</v>
       </c>
       <c r="E7" t="n">
-        <v>1.832834069286327E-9</v>
+        <v>1.6990174595952138E-9</v>
       </c>
       <c r="F7" t="n">
-        <v>4.170919397005918E-6</v>
-      </c>
-      <c r="G7" t="n">
-        <v>10.527185815968183</v>
+        <v>17.183476570888832</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>2.9243641532869162</v>
+        <v>4.651973380493658</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0147797030943646</v>
+        <v>7.3253911207377405</v>
       </c>
       <c r="D8" t="n">
-        <v>5.782950824269531</v>
+        <v>5.1176657185819055E-11</v>
       </c>
       <c r="E8" t="n">
-        <v>7.805312194203441E-8</v>
+        <v>9.982372531645335E-8</v>
       </c>
       <c r="F8" t="n">
-        <v>1.52248189570934E-4</v>
-      </c>
-      <c r="G8" t="n">
-        <v>7.291348457267089</v>
+        <v>13.580099032693678</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>2.1025218629154616</v>
+        <v>-5.3006744570964255</v>
       </c>
       <c r="C9" t="n">
-        <v>0.16210990638870332</v>
+        <v>-7.065408229047919</v>
       </c>
       <c r="D9" t="n">
-        <v>5.16794057658829</v>
+        <v>1.8314433986482576E-10</v>
       </c>
       <c r="E9" t="n">
-        <v>1.15261392065143E-6</v>
+        <v>3.125816020642914E-7</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0019672238090718283</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4.966489249748003</v>
+        <v>12.488073927808472</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.767470539119514</v>
+        <v>-6.685381270138269</v>
       </c>
       <c r="C10" t="n">
-        <v>4.442970696527676</v>
+        <v>-6.9888911101406626</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.042702157731355</v>
+        <v>2.658069546507629E-10</v>
       </c>
       <c r="E10" t="n">
-        <v>1.956418113100364E-6</v>
+        <v>4.0325868431127965E-7</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002968103657363597</v>
-      </c>
-      <c r="G10" t="n">
-        <v>4.50993519084456</v>
+        <v>12.168633574737665</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>2.5460558048357274</v>
+        <v>-6.886694361131257</v>
       </c>
       <c r="C11" t="n">
-        <v>1.2215806325660363</v>
+        <v>-6.8406512880197745</v>
       </c>
       <c r="D11" t="n">
-        <v>4.98857011581493</v>
+        <v>5.448919319377574E-10</v>
       </c>
       <c r="E11" t="n">
-        <v>2.453783466915718E-6</v>
+        <v>7.43995443867814E-7</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0033503959457267217</v>
-      </c>
-      <c r="G11" t="n">
-        <v>4.314538870498911</v>
+        <v>11.552584045052566</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>-5.864740719764526</v>
+        <v>2.7057933360125808</v>
       </c>
       <c r="C12" t="n">
-        <v>6.156057714475036</v>
+        <v>6.699974755914234</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.8744403802930325</v>
+        <v>1.0715360815525203E-9</v>
       </c>
       <c r="E12" t="n">
-        <v>3.938481080990395E-6</v>
+        <v>1.3300685143198283E-6</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004168658768271846</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3.9065416572373355</v>
+        <v>10.971665136247942</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>4.108709780188018</v>
+        <v>-5.371735960263591</v>
       </c>
       <c r="C13" t="n">
-        <v>1.3578746097733512</v>
+        <v>-6.609263466057092</v>
       </c>
       <c r="D13" t="n">
-        <v>4.873759266725288</v>
+        <v>1.6528055015486405E-9</v>
       </c>
       <c r="E13" t="n">
-        <v>3.949546172039172E-6</v>
+        <v>1.8806171931787613E-6</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004168658768271846</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3.904123239406495</v>
+        <v>10.59913141276687</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>2.0722770205310375</v>
+        <v>-4.477077167095065</v>
       </c>
       <c r="C14" t="n">
-        <v>0.16824882099238836</v>
+        <v>-6.083602148574357</v>
       </c>
       <c r="D14" t="n">
-        <v>4.8722633892985785</v>
+        <v>1.945183969518895E-8</v>
       </c>
       <c r="E14" t="n">
-        <v>3.97395376239353E-6</v>
+        <v>2.0430416861393073E-5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.004168658768271846</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3.8988125484362417</v>
+        <v>8.476713294199204</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>2.046891752496846</v>
+        <v>1.7094005657642488</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1428163599530938</v>
+        <v>5.547585887412166</v>
       </c>
       <c r="D15" t="n">
-        <v>4.854553712784739</v>
+        <v>2.1895735258580293E-7</v>
       </c>
       <c r="E15" t="n">
-        <v>4.27429491400365E-6</v>
+        <v>2.135459780147538E-4</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004168658768271846</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3.83601201955517</v>
+        <v>6.38943564406926</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n">
-        <v>-6.124477274428195</v>
+        <v>3.611404213172283</v>
       </c>
       <c r="C16" t="n">
-        <v>7.44704905844226</v>
+        <v>5.396319396359858</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.8302298308655285</v>
+        <v>4.2520989474831615E-7</v>
       </c>
       <c r="E16" t="n">
-        <v>4.723004670904727E-6</v>
+        <v>3.870543935262339E-4</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004299193718435543</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3.749976287113215</v>
+        <v>5.817084473620665</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n">
-        <v>1.5364494299292846</v>
+        <v>1.6310883037642576</v>
       </c>
       <c r="C17" t="n">
-        <v>0.15653496204693762</v>
+        <v>4.840058007421445</v>
       </c>
       <c r="D17" t="n">
-        <v>4.794979058656484</v>
+        <v>4.489162475409209E-6</v>
       </c>
       <c r="E17" t="n">
-        <v>5.455444091371483E-6</v>
+        <v>0.0037618233655025996</v>
       </c>
       <c r="F17" t="n">
-        <v>0.004655539601474139</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3.625745845301248</v>
+        <v>3.7862839039026737</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n">
-        <v>-4.75045851733839</v>
+        <v>3.445522234611977</v>
       </c>
       <c r="C18" t="n">
-        <v>5.021749480721904</v>
+        <v>4.8297314456167575</v>
       </c>
       <c r="D18" t="n">
-        <v>-4.641150391510902</v>
+        <v>4.6836822333048336E-6</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0162107282333765E-5</v>
+        <v>0.0037618233655025996</v>
       </c>
       <c r="F18" t="n">
-        <v>0.008161965460763837</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3.0900663552951215</v>
+        <v>3.749778007094071</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n">
-        <v>3.7576418927848323</v>
+        <v>-2.603084281175403</v>
       </c>
       <c r="C19" t="n">
-        <v>1.1962923414953417</v>
+        <v>-4.758496259661146</v>
       </c>
       <c r="D19" t="n">
-        <v>4.393731979896755</v>
+        <v>6.2669782574433045E-6</v>
       </c>
       <c r="E19" t="n">
-        <v>2.6953059882282395E-5</v>
+        <v>0.004734962206076639</v>
       </c>
       <c r="F19" t="n">
-        <v>0.019465358080632936</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2.2514827934712027</v>
+        <v>3.499222458495992</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n">
-        <v>1.9378901385934078</v>
+        <v>-1.7778460132002756</v>
       </c>
       <c r="C20" t="n">
-        <v>0.18944687322660603</v>
+        <v>-4.74618305673367</v>
       </c>
       <c r="D20" t="n">
-        <v>4.392456409311522</v>
+        <v>6.5888590827197994E-6</v>
       </c>
       <c r="E20" t="n">
-        <v>2.7086700126851162E-5</v>
+        <v>0.004734962206076639</v>
       </c>
       <c r="F20" t="n">
-        <v>0.019465358080632936</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2.247235976894867</v>
+        <v>3.4561405476648845</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n">
-        <v>1.6188523026226482</v>
+        <v>-3.189772460499021</v>
       </c>
       <c r="C21" t="n">
-        <v>0.40928409908816055</v>
+        <v>-4.726195497710919</v>
       </c>
       <c r="D21" t="n">
-        <v>4.2881582488773855</v>
+        <v>7.145795453959797E-6</v>
       </c>
       <c r="E21" t="n">
-        <v>4.04675157512316E-5</v>
+        <v>0.004878434556418354</v>
       </c>
       <c r="F21" t="n">
-        <v>0.027535268390518158</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.9027391618114926</v>
+        <v>3.386351518712142</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n">
-        <v>-3.966549523641249</v>
+        <v>1.55374594896447</v>
       </c>
       <c r="C22" t="n">
-        <v>4.416271669502783</v>
+        <v>4.4268085982378365</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.276250830952802</v>
+        <v>2.3518485851995887E-5</v>
       </c>
       <c r="E22" t="n">
-        <v>4.2349541248050485E-5</v>
+        <v>0.015291495515388182</v>
       </c>
       <c r="F22" t="n">
-        <v>0.027535268390518158</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.8637581274395618</v>
+        <v>2.36310477226582</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n">
-        <v>-2.8823704016527665</v>
+        <v>-1.4955676566897076</v>
       </c>
       <c r="C23" t="n">
-        <v>2.295374827176795</v>
+        <v>-4.40613718129326</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.172828968190846</v>
+        <v>2.5490831393158594E-5</v>
       </c>
       <c r="E23" t="n">
-        <v>6.264566090172988E-5</v>
+        <v>0.01582053690191761</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03888017517964635</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.5282603262759737</v>
+        <v>2.2940357348222493</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n">
-        <v>1.5899513623267112</v>
+        <v>-5.070825735756905</v>
       </c>
       <c r="C24" t="n">
-        <v>0.13357428761744342</v>
+        <v>-4.295473790627849</v>
       </c>
       <c r="D24" t="n">
-        <v>4.13507745384206</v>
+        <v>3.907698732782955E-5</v>
       </c>
       <c r="E24" t="n">
-        <v>7.216306877646138E-5</v>
+        <v>0.023198138477138464</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04283976265538277</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1.4071873627403235</v>
+        <v>1.927900372931723</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.3799873943345173</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.222372238780638</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5.1628319550562566E-5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.029210344607860084</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.6894529739130055</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="n">
-        <v>2.977616542588093</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.5709690259195497</v>
-      </c>
-      <c r="D25" t="n">
-        <v>4.095823760718439</v>
-      </c>
-      <c r="E25" t="n">
-        <v>8.352414094658698E-5</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.04751827585352911</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1.2820991704429066</v>
+      <c r="B26" t="n">
+        <v>-2.5572705637311977</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-4.213052981412448</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5.3483126936905095E-5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.029210344607860084</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.6592534459312809</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-3.627547349767957</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-4.175735009564007</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6.157264900260128E-5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.03233511344159684</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.538777647719889</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-1.6549095992192453</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-4.115306117282068</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7.721797972184398E-5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.03904941833785399</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.3452506121482797</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.8332013685141453</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.035923431466923</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.0363673420520337E-4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.04879503340820161</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.0939988463337933</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2.8332013685141453</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.035923431466923</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.0363673420520337E-4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.04879503340820161</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.0939988463337933</v>
       </c>
     </row>
   </sheetData>
@@ -817,140 +878,234 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0022561659110852342</v>
+        <v>0.005605081786527287</v>
       </c>
       <c r="E2" t="n">
-        <v>22.0</v>
+        <v>6.0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.18181818181818182</v>
+        <v>0.125</v>
       </c>
       <c r="I2" t="n">
-        <v>0.18181818181818182</v>
+        <v>0.5</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M2" t="n">
         <v>12925.0</v>
       </c>
       <c r="N2" t="n">
-        <v>3523.0</v>
+        <v>2591.0</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D3" t="n">
-        <v>0.045683443693022026</v>
+        <v>1.8248432416657584E-5</v>
       </c>
       <c r="E3" t="n">
-        <v>109.0</v>
+        <v>22.0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="G3" t="n">
         <v>5.0</v>
       </c>
       <c r="H3" t="n">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.22727272727272727</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.045871559633027525</v>
-      </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>12925.0</v>
       </c>
       <c r="N3" t="n">
-        <v>1783.0</v>
+        <v>3523.0</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02230908233649983</v>
+      </c>
+      <c r="E4" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.05813953488372093</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" t="n">
+        <v>12925.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2308.0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03346684230345311</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" t="n">
+        <v>12925.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2309.0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/docs/LMER_Microglia_2.xlsx
+++ b/docs/LMER_Microglia_2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>logFC</t>
   </si>
@@ -33,12 +33,12 @@
     <t>AY036118</t>
   </si>
   <si>
-    <t>AC099934.1</t>
-  </si>
-  <si>
     <t>Rn7s1</t>
   </si>
   <si>
+    <t>Gab3</t>
+  </si>
+  <si>
     <t>Tbata</t>
   </si>
   <si>
@@ -48,73 +48,49 @@
     <t>Mgmt</t>
   </si>
   <si>
-    <t>Gab3</t>
+    <t>Katnb1</t>
   </si>
   <si>
     <t>Gm10719</t>
   </si>
   <si>
+    <t>Gm15564</t>
+  </si>
+  <si>
     <t>Gm26870</t>
   </si>
   <si>
+    <t>Rn7s2</t>
+  </si>
+  <si>
+    <t>Sorbs2</t>
+  </si>
+  <si>
     <t>Gm10800</t>
   </si>
   <si>
-    <t>Gm15564</t>
+    <t>Actr3b</t>
+  </si>
+  <si>
+    <t>Zbp1</t>
   </si>
   <si>
     <t>Gm10801</t>
   </si>
   <si>
+    <t>Gm37401</t>
+  </si>
+  <si>
+    <t>Chchd5</t>
+  </si>
+  <si>
     <t>Gm10717</t>
   </si>
   <si>
-    <t>Prrx1</t>
-  </si>
-  <si>
-    <t>Rn7s2</t>
-  </si>
-  <si>
-    <t>Gm37716</t>
-  </si>
-  <si>
-    <t>Xist</t>
-  </si>
-  <si>
     <t>Pola2</t>
   </si>
   <si>
-    <t>CT010467.1</t>
-  </si>
-  <si>
-    <t>Gm11168</t>
-  </si>
-  <si>
-    <t>A430010J10Rik</t>
-  </si>
-  <si>
-    <t>Gm44068</t>
-  </si>
-  <si>
-    <t>Gm28661</t>
-  </si>
-  <si>
-    <t>Gm22567</t>
-  </si>
-  <si>
-    <t>AC127302.1</t>
-  </si>
-  <si>
-    <t>Gm21738</t>
-  </si>
-  <si>
-    <t>Rpl19-ps11</t>
-  </si>
-  <si>
-    <t>Gm10359</t>
-  </si>
-  <si>
-    <t>Gm12671</t>
+    <t>Bola1</t>
   </si>
   <si>
     <t>query</t>
@@ -165,55 +141,31 @@
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>query_1</t>
   </si>
   <si>
     <t>TRUE</t>
   </si>
   <si>
-    <t>GO:0006617</t>
-  </si>
-  <si>
     <t>TF:M00285_1</t>
   </si>
   <si>
-    <t>TF:M00935</t>
-  </si>
-  <si>
-    <t>TF:M00935_1</t>
-  </si>
-  <si>
-    <t>GO:BP</t>
+    <t>TF:M00972_1</t>
   </si>
   <si>
     <t>TF</t>
   </si>
   <si>
-    <t>SRP-dependent cotranslational protein targeting to membrane, signal sequence recognition</t>
-  </si>
-  <si>
     <t>Factor: TCF11; motif: GTCATNNWNNNNN; match class: 1</t>
   </si>
   <si>
-    <t>Factor: NFAT; motif: NWGGAAANWN</t>
-  </si>
-  <si>
-    <t>Factor: NFAT; motif: NWGGAAANWN; match class: 1</t>
-  </si>
-  <si>
-    <t>c("GO:0006614", "GO:0065003")</t>
+    <t>Factor: IRF; motif: RAAANTGAAAN; match class: 1</t>
   </si>
   <si>
     <t>TF:M00285</t>
   </si>
   <si>
-    <t>TF:M00000</t>
+    <t>TF:M00972</t>
   </si>
 </sst>
 </file>
@@ -287,19 +239,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-10.106030600013783</v>
+        <v>-12.464774056837403</v>
       </c>
       <c r="C2" t="n">
-        <v>-13.789947788633683</v>
+        <v>-14.73545126583319</v>
       </c>
       <c r="D2" t="n">
-        <v>2.7188441489949247E-25</v>
+        <v>3.176790902116422E-27</v>
       </c>
       <c r="E2" t="n">
-        <v>3.71230980103767E-21</v>
+        <v>3.692384065529917E-23</v>
       </c>
       <c r="F2" t="n">
-        <v>40.529498696899985</v>
+        <v>42.84064170829739</v>
       </c>
     </row>
     <row r="3">
@@ -307,19 +259,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>2.2402933253836896</v>
+        <v>6.378280094286279</v>
       </c>
       <c r="C3" t="n">
-        <v>13.120945962533792</v>
+        <v>10.962149472038675</v>
       </c>
       <c r="D3" t="n">
-        <v>7.504821630468717E-24</v>
+        <v>4.722449304385538E-19</v>
       </c>
       <c r="E3" t="n">
-        <v>5.123541727120993E-20</v>
+        <v>2.7444514132436552E-15</v>
       </c>
       <c r="F3" t="n">
-        <v>37.941760092079086</v>
+        <v>28.45555103688102</v>
       </c>
     </row>
     <row r="4">
@@ -327,19 +279,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>5.880974527270541</v>
+        <v>6.3378777627518845</v>
       </c>
       <c r="C4" t="n">
-        <v>12.702567075215722</v>
+        <v>8.374814390031455</v>
       </c>
       <c r="D4" t="n">
-        <v>6.111752454865547E-23</v>
+        <v>2.7565976713152377E-13</v>
       </c>
       <c r="E4" t="n">
-        <v>2.781662267291139E-19</v>
+        <v>1.067997824456567E-9</v>
       </c>
       <c r="F4" t="n">
-        <v>36.28828301630462</v>
+        <v>17.670972950243808</v>
       </c>
     </row>
     <row r="5">
@@ -347,19 +299,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>3.4002338189489225</v>
+        <v>3.178784584995685</v>
       </c>
       <c r="C5" t="n">
-        <v>9.835571469221989</v>
+        <v>7.248794614295984</v>
       </c>
       <c r="D5" t="n">
-        <v>1.4591942085177551E-16</v>
+        <v>7.660099922791434E-11</v>
       </c>
       <c r="E5" t="n">
-        <v>4.980959430775357E-13</v>
+        <v>2.225833535065121E-7</v>
       </c>
       <c r="F5" t="n">
-        <v>24.360379497474767</v>
+        <v>12.978506247073033</v>
       </c>
     </row>
     <row r="6">
@@ -367,19 +319,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>2.548373817266852</v>
+        <v>2.5483738172668606</v>
       </c>
       <c r="C6" t="n">
-        <v>8.343407441862762</v>
+        <v>6.542545166612965</v>
       </c>
       <c r="D6" t="n">
-        <v>3.107048335000403E-13</v>
+        <v>2.3140566078680852E-9</v>
       </c>
       <c r="E6" t="n">
-        <v>8.484727593219102E-10</v>
+        <v>5.3792559906501504E-6</v>
       </c>
       <c r="F6" t="n">
-        <v>17.92694679930857</v>
+        <v>10.110435646602793</v>
       </c>
     </row>
     <row r="7">
@@ -387,19 +339,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>3.287029102311517</v>
+        <v>2.9243641532869162</v>
       </c>
       <c r="C7" t="n">
-        <v>8.170582739751772</v>
+        <v>5.760231052955383</v>
       </c>
       <c r="D7" t="n">
-        <v>7.466020768691434E-13</v>
+        <v>8.593964911054543E-8</v>
       </c>
       <c r="E7" t="n">
-        <v>1.6990174595952138E-9</v>
+        <v>1.6647942360197826E-4</v>
       </c>
       <c r="F7" t="n">
-        <v>17.183476570888832</v>
+        <v>7.0539198734764526</v>
       </c>
     </row>
     <row r="8">
@@ -407,19 +359,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>4.651973380493658</v>
+        <v>2.1025218629154616</v>
       </c>
       <c r="C8" t="n">
-        <v>7.3253911207377405</v>
+        <v>5.132557075111235</v>
       </c>
       <c r="D8" t="n">
-        <v>5.1176657185819055E-11</v>
+        <v>1.3340826265274634E-6</v>
       </c>
       <c r="E8" t="n">
-        <v>9.982372531645335E-8</v>
+        <v>0.0022151489097326726</v>
       </c>
       <c r="F8" t="n">
-        <v>13.580099032693678</v>
+        <v>4.730525401240634</v>
       </c>
     </row>
     <row r="9">
@@ -427,19 +379,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>-5.3006744570964255</v>
+        <v>-4.767470539119514</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.065408229047919</v>
+        <v>-5.042364390847375</v>
       </c>
       <c r="D9" t="n">
-        <v>1.8314433986482576E-10</v>
+        <v>1.9518717994183904E-6</v>
       </c>
       <c r="E9" t="n">
-        <v>3.125816020642914E-7</v>
+        <v>0.002835825740579994</v>
       </c>
       <c r="F9" t="n">
-        <v>12.488073927808472</v>
+        <v>4.408191622118775</v>
       </c>
     </row>
     <row r="10">
@@ -447,19 +399,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>-6.685381270138269</v>
+        <v>2.5460558048357274</v>
       </c>
       <c r="C10" t="n">
-        <v>-6.9888911101406626</v>
+        <v>4.969462223508583</v>
       </c>
       <c r="D10" t="n">
-        <v>2.658069546507629E-10</v>
+        <v>2.647729966589733E-6</v>
       </c>
       <c r="E10" t="n">
-        <v>4.0325868431127965E-7</v>
+        <v>0.0034193961557413845</v>
       </c>
       <c r="F10" t="n">
-        <v>12.168633574737665</v>
+        <v>4.149978343807701</v>
       </c>
     </row>
     <row r="11">
@@ -467,19 +419,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>-6.886694361131257</v>
+        <v>-5.864740719764526</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.8406512880197745</v>
+        <v>-4.877019147854998</v>
       </c>
       <c r="D11" t="n">
-        <v>5.448919319377574E-10</v>
+        <v>3.883827300012358E-6</v>
       </c>
       <c r="E11" t="n">
-        <v>7.43995443867814E-7</v>
+        <v>0.004008240149861646</v>
       </c>
       <c r="F11" t="n">
-        <v>11.552584045052566</v>
+        <v>3.825633621894463</v>
       </c>
     </row>
     <row r="12">
@@ -487,19 +439,19 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>2.7057933360125808</v>
+        <v>4.108709780188018</v>
       </c>
       <c r="C12" t="n">
-        <v>6.699974755914234</v>
+        <v>4.8714791514157305</v>
       </c>
       <c r="D12" t="n">
-        <v>1.0715360815525203E-9</v>
+        <v>3.973525451389624E-6</v>
       </c>
       <c r="E12" t="n">
-        <v>1.3300685143198283E-6</v>
+        <v>0.004008240149861646</v>
       </c>
       <c r="F12" t="n">
-        <v>10.971665136247942</v>
+        <v>3.8063075936827246</v>
       </c>
     </row>
     <row r="13">
@@ -507,19 +459,19 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>-5.371735960263591</v>
+        <v>2.0722770205310375</v>
       </c>
       <c r="C13" t="n">
-        <v>-6.609263466057092</v>
+        <v>4.8423196290845505</v>
       </c>
       <c r="D13" t="n">
-        <v>1.6528055015486405E-9</v>
+        <v>4.479863304959002E-6</v>
       </c>
       <c r="E13" t="n">
-        <v>1.8806171931787613E-6</v>
+        <v>0.004008240149861646</v>
       </c>
       <c r="F13" t="n">
-        <v>10.59913141276687</v>
+        <v>3.704796786266197</v>
       </c>
     </row>
     <row r="14">
@@ -527,19 +479,19 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>-4.477077167095065</v>
+        <v>-6.124477274428195</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.083602148574357</v>
+        <v>-4.8332483992056545</v>
       </c>
       <c r="D14" t="n">
-        <v>1.945183969518895E-8</v>
+        <v>4.6497886885899775E-6</v>
       </c>
       <c r="E14" t="n">
-        <v>2.0430416861393073E-5</v>
+        <v>0.004008240149861646</v>
       </c>
       <c r="F14" t="n">
-        <v>8.476713294199204</v>
+        <v>3.6732904368820396</v>
       </c>
     </row>
     <row r="15">
@@ -547,19 +499,19 @@
         <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>1.7094005657642488</v>
+        <v>2.046891752496846</v>
       </c>
       <c r="C15" t="n">
-        <v>5.547585887412166</v>
+        <v>4.824076618653209</v>
       </c>
       <c r="D15" t="n">
-        <v>2.1895735258580293E-7</v>
+        <v>4.8279585389368535E-6</v>
       </c>
       <c r="E15" t="n">
-        <v>2.135459780147538E-4</v>
+        <v>0.004008240149861646</v>
       </c>
       <c r="F15" t="n">
-        <v>6.38943564406926</v>
+        <v>3.641470076927938</v>
       </c>
     </row>
     <row r="16">
@@ -567,19 +519,19 @@
         <v>19</v>
       </c>
       <c r="B16" t="n">
-        <v>3.611404213172283</v>
+        <v>1.5364494299292846</v>
       </c>
       <c r="C16" t="n">
-        <v>5.396319396359858</v>
+        <v>4.73815985391293</v>
       </c>
       <c r="D16" t="n">
-        <v>4.2520989474831615E-7</v>
+        <v>6.853028164467958E-6</v>
       </c>
       <c r="E16" t="n">
-        <v>3.870543935262339E-4</v>
+        <v>0.0053101830903740715</v>
       </c>
       <c r="F16" t="n">
-        <v>5.817084473620665</v>
+        <v>3.345132027245338</v>
       </c>
     </row>
     <row r="17">
@@ -587,19 +539,19 @@
         <v>20</v>
       </c>
       <c r="B17" t="n">
-        <v>1.6310883037642576</v>
+        <v>-4.75045851733839</v>
       </c>
       <c r="C17" t="n">
-        <v>4.840058007421445</v>
+        <v>-4.641900746505353</v>
       </c>
       <c r="D17" t="n">
-        <v>4.489162475409209E-6</v>
+        <v>1.0102896460566776E-5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0037618233655025996</v>
+        <v>0.007339122847572977</v>
       </c>
       <c r="F17" t="n">
-        <v>3.7862839039026737</v>
+        <v>3.0169337176070474</v>
       </c>
     </row>
     <row r="18">
@@ -607,19 +559,19 @@
         <v>21</v>
       </c>
       <c r="B18" t="n">
-        <v>3.445522234611977</v>
+        <v>3.7576418927848323</v>
       </c>
       <c r="C18" t="n">
-        <v>4.8297314456167575</v>
+        <v>4.391919844944329</v>
       </c>
       <c r="D18" t="n">
-        <v>4.6836822333048336E-6</v>
+        <v>2.7079311841267662E-5</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0037618233655025996</v>
+        <v>0.018514284795944354</v>
       </c>
       <c r="F18" t="n">
-        <v>3.749778007094071</v>
+        <v>2.1843033185175145</v>
       </c>
     </row>
     <row r="19">
@@ -627,19 +579,19 @@
         <v>22</v>
       </c>
       <c r="B19" t="n">
-        <v>-2.603084281175403</v>
+        <v>1.9378901385934078</v>
       </c>
       <c r="C19" t="n">
-        <v>-4.758496259661146</v>
+        <v>4.367806053015419</v>
       </c>
       <c r="D19" t="n">
-        <v>6.2669782574433045E-6</v>
+        <v>2.972962958651007E-5</v>
       </c>
       <c r="E19" t="n">
-        <v>0.004734962206076639</v>
+        <v>0.019197082482444807</v>
       </c>
       <c r="F19" t="n">
-        <v>3.499222458495992</v>
+        <v>2.1055464031942863</v>
       </c>
     </row>
     <row r="20">
@@ -647,19 +599,19 @@
         <v>23</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.7778460132002756</v>
+        <v>-3.966549523641249</v>
       </c>
       <c r="C20" t="n">
-        <v>-4.74618305673367</v>
+        <v>-4.275705865460243</v>
       </c>
       <c r="D20" t="n">
-        <v>6.5888590827197994E-6</v>
+        <v>4.234660468432426E-5</v>
       </c>
       <c r="E20" t="n">
-        <v>0.004734962206076639</v>
+        <v>0.025904978223468465</v>
       </c>
       <c r="F20" t="n">
-        <v>3.4561405476648845</v>
+        <v>1.807361934560464</v>
       </c>
     </row>
     <row r="21">
@@ -667,19 +619,19 @@
         <v>24</v>
       </c>
       <c r="B21" t="n">
-        <v>-3.189772460499021</v>
+        <v>-2.8823704016527665</v>
       </c>
       <c r="C21" t="n">
-        <v>-4.726195497710919</v>
+        <v>-4.166888364116291</v>
       </c>
       <c r="D21" t="n">
-        <v>7.145795453959797E-6</v>
+        <v>6.393305552124396E-5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004878434556418354</v>
+        <v>0.03715469521617092</v>
       </c>
       <c r="F21" t="n">
-        <v>3.386351518712142</v>
+        <v>1.4605202365571541</v>
       </c>
     </row>
     <row r="22">
@@ -687,179 +639,19 @@
         <v>25</v>
       </c>
       <c r="B22" t="n">
-        <v>1.55374594896447</v>
+        <v>2.977616542588093</v>
       </c>
       <c r="C22" t="n">
-        <v>4.4268085982378365</v>
+        <v>4.091149677520535</v>
       </c>
       <c r="D22" t="n">
-        <v>2.3518485851995887E-5</v>
+        <v>8.482913941942242E-5</v>
       </c>
       <c r="E22" t="n">
-        <v>0.015291495515388182</v>
+        <v>0.04695090892723556</v>
       </c>
       <c r="F22" t="n">
-        <v>2.36310477226582</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.4955676566897076</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-4.40613718129326</v>
-      </c>
-      <c r="D23" t="n">
-        <v>2.5490831393158594E-5</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.01582053690191761</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2.2940357348222493</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="n">
-        <v>-5.070825735756905</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-4.295473790627849</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3.907698732782955E-5</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.023198138477138464</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.927900372931723</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1.3799873943345173</v>
-      </c>
-      <c r="C25" t="n">
-        <v>4.222372238780638</v>
-      </c>
-      <c r="D25" t="n">
-        <v>5.1628319550562566E-5</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.029210344607860084</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1.6894529739130055</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="n">
-        <v>-2.5572705637311977</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-4.213052981412448</v>
-      </c>
-      <c r="D26" t="n">
-        <v>5.3483126936905095E-5</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.029210344607860084</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1.6592534459312809</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="n">
-        <v>-3.627547349767957</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-4.175735009564007</v>
-      </c>
-      <c r="D27" t="n">
-        <v>6.157264900260128E-5</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.03233511344159684</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1.538777647719889</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="n">
-        <v>-1.6549095992192453</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-4.115306117282068</v>
-      </c>
-      <c r="D28" t="n">
-        <v>7.721797972184398E-5</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.03904941833785399</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1.3452506121482797</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="n">
-        <v>2.8332013685141453</v>
-      </c>
-      <c r="C29" t="n">
-        <v>4.035923431466923</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1.0363673420520337E-4</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.04879503340820161</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.0939988463337933</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="n">
-        <v>2.8332013685141453</v>
-      </c>
-      <c r="C30" t="n">
-        <v>4.035923431466923</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1.0363673420520337E-4</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.04879503340820161</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.0939988463337933</v>
+        <v>1.222699349033256</v>
       </c>
     </row>
   </sheetData>
@@ -878,234 +670,140 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005605081786527287</v>
+        <v>0.0022192442165054845</v>
       </c>
       <c r="E2" t="n">
-        <v>6.0</v>
+        <v>21.0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="M2" t="n">
-        <v>12925.0</v>
+        <v>11137.0</v>
       </c>
       <c r="N2" t="n">
-        <v>2591.0</v>
+        <v>3523.0</v>
       </c>
       <c r="O2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D3" t="n">
-        <v>1.8248432416657584E-5</v>
+        <v>0.025579106035933587</v>
       </c>
       <c r="E3" t="n">
-        <v>22.0</v>
+        <v>93.0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="G3" t="n">
         <v>5.0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.20833333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="I3" t="n">
-        <v>0.22727272727272727</v>
+        <v>0.053763440860215055</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="M3" t="n">
-        <v>12925.0</v>
+        <v>11137.0</v>
       </c>
       <c r="N3" t="n">
-        <v>3523.0</v>
+        <v>1783.0</v>
       </c>
       <c r="O3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
         <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02230908233649983</v>
-      </c>
-      <c r="E4" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.05813953488372093</v>
-      </c>
-      <c r="J4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12925.0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2308.0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03346684230345311</v>
-      </c>
-      <c r="E5" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" t="n">
-        <v>12925.0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2309.0</v>
-      </c>
-      <c r="O5" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/docs/LMER_Microglia_2.xlsx
+++ b/docs/LMER_Microglia_2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>logFC</t>
   </si>
@@ -135,6 +135,12 @@
     <t>parents</t>
   </si>
   <si>
+    <t>evidence_codes</t>
+  </si>
+  <si>
+    <t>intersection</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -166,6 +172,18 @@
   </si>
   <si>
     <t>TF:M00972</t>
+  </si>
+  <si>
+    <t>TF,TF,TF,TF</t>
+  </si>
+  <si>
+    <t>TF,TF,TF,TF,TF</t>
+  </si>
+  <si>
+    <t>Gm10719,Gm10800,Gm10801,Gm10717</t>
+  </si>
+  <si>
+    <t>Gm10719,Gm10800,Zbp1,Gm10801,Gm10717</t>
   </si>
 </sst>
 </file>
@@ -711,16 +729,22 @@
       <c r="O1" t="s">
         <v>39</v>
       </c>
+      <c r="P1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
         <v>0.0022192442165054845</v>
@@ -741,13 +765,13 @@
         <v>0.19047619047619047</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M2" t="n">
         <v>11137.0</v>
@@ -756,18 +780,24 @@
         <v>3523.0</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="P2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
         <v>0.025579106035933587</v>
@@ -788,13 +818,13 @@
         <v>0.053763440860215055</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M3" t="n">
         <v>11137.0</v>
@@ -803,7 +833,13 @@
         <v>1783.0</v>
       </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="P3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/docs/LMER_Microglia_2.xlsx
+++ b/docs/LMER_Microglia_2.xlsx
@@ -13,9 +13,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>logFC</t>
+  </si>
+  <si>
+    <t>AveExpr</t>
   </si>
   <si>
     <t>t</t>
@@ -251,424 +254,490 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>-12.464774056837403</v>
       </c>
       <c r="C2" t="n">
+        <v>5.8773006486210715</v>
+      </c>
+      <c r="D2" t="n">
         <v>-14.73545126583319</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>3.176790902116422E-27</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>3.692384065529917E-23</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>42.84064170829739</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>6.378280094286279</v>
       </c>
       <c r="C3" t="n">
+        <v>2.0154136727363983</v>
+      </c>
+      <c r="D3" t="n">
         <v>10.962149472038675</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>4.722449304385538E-19</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>2.7444514132436552E-15</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>28.45555103688102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>6.3378777627518845</v>
       </c>
       <c r="C4" t="n">
+        <v>1.368771845515932</v>
+      </c>
+      <c r="D4" t="n">
         <v>8.374814390031455</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>2.7565976713152377E-13</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>1.067997824456567E-9</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>17.670972950243808</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>3.178784584995685</v>
       </c>
       <c r="C5" t="n">
+        <v>1.0941884087293163</v>
+      </c>
+      <c r="D5" t="n">
         <v>7.248794614295984</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>7.660099922791434E-11</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>2.225833535065121E-7</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>12.978506247073033</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>2.5483738172668606</v>
       </c>
       <c r="C6" t="n">
+        <v>0.9313979624794326</v>
+      </c>
+      <c r="D6" t="n">
         <v>6.542545166612965</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>2.3140566078680852E-9</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>5.3792559906501504E-6</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>10.110435646602793</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>2.9243641532869162</v>
       </c>
       <c r="C7" t="n">
+        <v>1.0147797030943646</v>
+      </c>
+      <c r="D7" t="n">
         <v>5.760231052955383</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>8.593964911054543E-8</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>1.6647942360197826E-4</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>7.0539198734764526</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
         <v>2.1025218629154616</v>
       </c>
       <c r="C8" t="n">
+        <v>0.16210990638870332</v>
+      </c>
+      <c r="D8" t="n">
         <v>5.132557075111235</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>1.3340826265274634E-6</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.0022151489097326726</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>4.730525401240634</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
         <v>-4.767470539119514</v>
       </c>
       <c r="C9" t="n">
+        <v>4.442970696527676</v>
+      </c>
+      <c r="D9" t="n">
         <v>-5.042364390847375</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>1.9518717994183904E-6</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.002835825740579994</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>4.408191622118775</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
         <v>2.5460558048357274</v>
       </c>
       <c r="C10" t="n">
+        <v>1.2215806325660363</v>
+      </c>
+      <c r="D10" t="n">
         <v>4.969462223508583</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>2.647729966589733E-6</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.0034193961557413845</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>4.149978343807701</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
         <v>-5.864740719764526</v>
       </c>
       <c r="C11" t="n">
+        <v>6.156057714475036</v>
+      </c>
+      <c r="D11" t="n">
         <v>-4.877019147854998</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>3.883827300012358E-6</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.004008240149861646</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>3.825633621894463</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
         <v>4.108709780188018</v>
       </c>
       <c r="C12" t="n">
+        <v>1.3578746097733512</v>
+      </c>
+      <c r="D12" t="n">
         <v>4.8714791514157305</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>3.973525451389624E-6</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.004008240149861646</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>3.8063075936827246</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
         <v>2.0722770205310375</v>
       </c>
       <c r="C13" t="n">
+        <v>0.16824882099238836</v>
+      </c>
+      <c r="D13" t="n">
         <v>4.8423196290845505</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>4.479863304959002E-6</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.004008240149861646</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>3.704796786266197</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
         <v>-6.124477274428195</v>
       </c>
       <c r="C14" t="n">
+        <v>7.44704905844226</v>
+      </c>
+      <c r="D14" t="n">
         <v>-4.8332483992056545</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>4.6497886885899775E-6</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.004008240149861646</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>3.6732904368820396</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n">
         <v>2.046891752496846</v>
       </c>
       <c r="C15" t="n">
+        <v>0.1428163599530938</v>
+      </c>
+      <c r="D15" t="n">
         <v>4.824076618653209</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>4.8279585389368535E-6</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.004008240149861646</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>3.641470076927938</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n">
         <v>1.5364494299292846</v>
       </c>
       <c r="C16" t="n">
+        <v>0.15653496204693762</v>
+      </c>
+      <c r="D16" t="n">
         <v>4.73815985391293</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>6.853028164467958E-6</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.0053101830903740715</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>3.345132027245338</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="n">
         <v>-4.75045851733839</v>
       </c>
       <c r="C17" t="n">
+        <v>5.021749480721904</v>
+      </c>
+      <c r="D17" t="n">
         <v>-4.641900746505353</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>1.0102896460566776E-5</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.007339122847572977</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>3.0169337176070474</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" t="n">
         <v>3.7576418927848323</v>
       </c>
       <c r="C18" t="n">
+        <v>1.1962923414953417</v>
+      </c>
+      <c r="D18" t="n">
         <v>4.391919844944329</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>2.7079311841267662E-5</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.018514284795944354</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>2.1843033185175145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="n">
         <v>1.9378901385934078</v>
       </c>
       <c r="C19" t="n">
+        <v>0.18944687322660603</v>
+      </c>
+      <c r="D19" t="n">
         <v>4.367806053015419</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>2.972962958651007E-5</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.019197082482444807</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>2.1055464031942863</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="n">
         <v>-3.966549523641249</v>
       </c>
       <c r="C20" t="n">
+        <v>4.416271669502783</v>
+      </c>
+      <c r="D20" t="n">
         <v>-4.275705865460243</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>4.234660468432426E-5</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.025904978223468465</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>1.807361934560464</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="n">
         <v>-2.8823704016527665</v>
       </c>
       <c r="C21" t="n">
+        <v>2.295374827176795</v>
+      </c>
+      <c r="D21" t="n">
         <v>-4.166888364116291</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>6.393305552124396E-5</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.03715469521617092</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>1.4605202365571541</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" t="n">
         <v>2.977616542588093</v>
       </c>
       <c r="C22" t="n">
+        <v>0.5709690259195497</v>
+      </c>
+      <c r="D22" t="n">
         <v>4.091149677520535</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>8.482913941942242E-5</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.04695090892723556</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>1.222699349033256</v>
       </c>
     </row>
@@ -688,63 +757,63 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" t="n">
         <v>0.0022192442165054845</v>
@@ -765,13 +834,13 @@
         <v>0.19047619047619047</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="n">
         <v>11137.0</v>
@@ -780,24 +849,24 @@
         <v>3523.0</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" t="n">
         <v>0.025579106035933587</v>
@@ -818,13 +887,13 @@
         <v>0.053763440860215055</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M3" t="n">
         <v>11137.0</v>
@@ -833,13 +902,13 @@
         <v>1783.0</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/docs/LMER_Microglia_2.xlsx
+++ b/docs/LMER_Microglia_2.xlsx
@@ -816,7 +816,7 @@
         <v>46</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0022192442165054845</v>
+        <v>0.002225601781285143</v>
       </c>
       <c r="E2" t="n">
         <v>21.0</v>
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N2" t="n">
         <v>3523.0</v>
@@ -869,7 +869,7 @@
         <v>46</v>
       </c>
       <c r="D3" t="n">
-        <v>0.025579106035933587</v>
+        <v>0.025669358291050163</v>
       </c>
       <c r="E3" t="n">
         <v>93.0</v>
@@ -896,7 +896,7 @@
         <v>51</v>
       </c>
       <c r="M3" t="n">
-        <v>11137.0</v>
+        <v>11129.0</v>
       </c>
       <c r="N3" t="n">
         <v>1783.0</v>
